--- a/DRI.xlsx
+++ b/DRI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268E7065-8269-4CFF-A6E6-0221F085F0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F128A165-5693-4ABD-B70C-74DC6E07A8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{6BFE2E30-66F2-4DF6-B290-3DE3FF030296}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{6BFE2E30-66F2-4DF6-B290-3DE3FF030296}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,12 +175,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -189,6 +187,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,20 +224,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -563,33 +576,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2CDEAD-0DE3-4B9C-826B-B31A426E950A}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>192.3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="4">
@@ -599,11 +613,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="4">
@@ -611,11 +625,11 @@
         <v>22527.326947800004</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="4">
@@ -625,8 +639,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="4">
@@ -637,8 +651,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="4">
@@ -655,25 +669,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B6C857-22A6-4855-96B3-C21F7685C8AE}">
   <dimension ref="A1:AX242"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
@@ -699,8 +714,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="5"/>
@@ -716,8 +731,8 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="5"/>
@@ -733,75 +748,76 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <f>+D6-SUM(D3:D4)</f>
         <v>515</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <f>+H6-SUM(H3:H4)</f>
         <v>647</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
         <v>2010</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9">
         <v>2152</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="3">
+      <c r="D7" s="8">
         <f t="shared" ref="D7:G7" si="0">+D13/D6</f>
         <v>1.3568656716417911</v>
       </c>
-      <c r="E7" s="3" t="e">
+      <c r="E7" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F7" s="3" t="e">
+      <c r="F7" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G7" s="3" t="e">
+      <c r="G7" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="8">
         <f>+H13/H6</f>
         <v>1.3429368029739777</v>
       </c>
-      <c r="I7" s="3" t="e">
+      <c r="I7" s="8" t="e">
         <f t="shared" ref="I7:J7" si="1">+I13/I6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="3" t="e">
+      <c r="J7" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -809,7 +825,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -822,8 +838,8 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="4"/>
@@ -842,8 +858,8 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="4"/>
@@ -862,8 +878,8 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="4"/>
@@ -882,8 +898,8 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="4"/>
@@ -939,65 +955,66 @@
       <c r="AW12" s="4"/>
       <c r="AX12" s="4"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="7">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9">
         <v>2727.3</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
         <v>2890</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AX13" s="4"/>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="4"/>
@@ -1053,8 +1070,8 @@
       <c r="AW14" s="4"/>
       <c r="AX14" s="4"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="4"/>
@@ -1110,8 +1127,8 @@
       <c r="AW15" s="4"/>
       <c r="AX15" s="4"/>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="4"/>
@@ -1167,8 +1184,8 @@
       <c r="AW16" s="4"/>
       <c r="AX16" s="4"/>
     </row>
-    <row r="17" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="4"/>
@@ -1241,8 +1258,8 @@
       <c r="AW17" s="4"/>
       <c r="AX17" s="4"/>
     </row>
-    <row r="18" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="4"/>
@@ -1298,8 +1315,8 @@
       <c r="AW18" s="4"/>
       <c r="AX18" s="4"/>
     </row>
-    <row r="19" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="4"/>
@@ -1355,8 +1372,8 @@
       <c r="AW19" s="4"/>
       <c r="AX19" s="4"/>
     </row>
-    <row r="20" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="4"/>
@@ -1412,8 +1429,8 @@
       <c r="AW20" s="4"/>
       <c r="AX20" s="4"/>
     </row>
-    <row r="21" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="4"/>
@@ -1469,8 +1486,8 @@
       <c r="AW21" s="4"/>
       <c r="AX21" s="4"/>
     </row>
-    <row r="22" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="4">
@@ -1546,8 +1563,8 @@
       <c r="AW22" s="4"/>
       <c r="AX22" s="4"/>
     </row>
-    <row r="23" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="4"/>
@@ -1603,8 +1620,8 @@
       <c r="AW23" s="4"/>
       <c r="AX23" s="4"/>
     </row>
-    <row r="24" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="4">
@@ -1680,8 +1697,8 @@
       <c r="AW24" s="4"/>
       <c r="AX24" s="4"/>
     </row>
-    <row r="25" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="4"/>
@@ -1737,8 +1754,8 @@
       <c r="AW25" s="4"/>
       <c r="AX25" s="4"/>
     </row>
-    <row r="26" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="4">
@@ -1814,7 +1831,7 @@
       <c r="AW26" s="4"/>
       <c r="AX26" s="4"/>
     </row>
-    <row r="27" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1864,7 +1881,7 @@
       <c r="AW27" s="4"/>
       <c r="AX27" s="4"/>
     </row>
-    <row r="28" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1914,7 +1931,7 @@
       <c r="AW28" s="4"/>
       <c r="AX28" s="4"/>
     </row>
-    <row r="29" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1964,7 +1981,7 @@
       <c r="AW29" s="4"/>
       <c r="AX29" s="4"/>
     </row>
-    <row r="30" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2014,7 +2031,7 @@
       <c r="AW30" s="4"/>
       <c r="AX30" s="4"/>
     </row>
-    <row r="31" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2064,7 +2081,7 @@
       <c r="AW31" s="4"/>
       <c r="AX31" s="4"/>
     </row>
-    <row r="32" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -2114,7 +2131,7 @@
       <c r="AW32" s="4"/>
       <c r="AX32" s="4"/>
     </row>
-    <row r="33" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2164,7 +2181,7 @@
       <c r="AW33" s="4"/>
       <c r="AX33" s="4"/>
     </row>
-    <row r="34" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2214,7 +2231,7 @@
       <c r="AW34" s="4"/>
       <c r="AX34" s="4"/>
     </row>
-    <row r="35" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2264,7 +2281,7 @@
       <c r="AW35" s="4"/>
       <c r="AX35" s="4"/>
     </row>
-    <row r="36" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2314,7 +2331,7 @@
       <c r="AW36" s="4"/>
       <c r="AX36" s="4"/>
     </row>
-    <row r="37" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -2364,7 +2381,7 @@
       <c r="AW37" s="4"/>
       <c r="AX37" s="4"/>
     </row>
-    <row r="38" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -2414,7 +2431,7 @@
       <c r="AW38" s="4"/>
       <c r="AX38" s="4"/>
     </row>
-    <row r="39" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -2464,7 +2481,7 @@
       <c r="AW39" s="4"/>
       <c r="AX39" s="4"/>
     </row>
-    <row r="40" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2514,7 +2531,7 @@
       <c r="AW40" s="4"/>
       <c r="AX40" s="4"/>
     </row>
-    <row r="41" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2564,7 +2581,7 @@
       <c r="AW41" s="4"/>
       <c r="AX41" s="4"/>
     </row>
-    <row r="42" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -2614,7 +2631,7 @@
       <c r="AW42" s="4"/>
       <c r="AX42" s="4"/>
     </row>
-    <row r="43" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2664,7 +2681,7 @@
       <c r="AW43" s="4"/>
       <c r="AX43" s="4"/>
     </row>
-    <row r="44" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2714,7 +2731,7 @@
       <c r="AW44" s="4"/>
       <c r="AX44" s="4"/>
     </row>
-    <row r="45" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -2764,7 +2781,7 @@
       <c r="AW45" s="4"/>
       <c r="AX45" s="4"/>
     </row>
-    <row r="46" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -2814,7 +2831,7 @@
       <c r="AW46" s="4"/>
       <c r="AX46" s="4"/>
     </row>
-    <row r="47" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -2864,7 +2881,7 @@
       <c r="AW47" s="4"/>
       <c r="AX47" s="4"/>
     </row>
-    <row r="48" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -2914,7 +2931,7 @@
       <c r="AW48" s="4"/>
       <c r="AX48" s="4"/>
     </row>
-    <row r="49" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -2964,7 +2981,7 @@
       <c r="AW49" s="4"/>
       <c r="AX49" s="4"/>
     </row>
-    <row r="50" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -3014,7 +3031,7 @@
       <c r="AW50" s="4"/>
       <c r="AX50" s="4"/>
     </row>
-    <row r="51" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -3064,7 +3081,7 @@
       <c r="AW51" s="4"/>
       <c r="AX51" s="4"/>
     </row>
-    <row r="52" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -3114,7 +3131,7 @@
       <c r="AW52" s="4"/>
       <c r="AX52" s="4"/>
     </row>
-    <row r="53" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -3164,7 +3181,7 @@
       <c r="AW53" s="4"/>
       <c r="AX53" s="4"/>
     </row>
-    <row r="54" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -3214,7 +3231,7 @@
       <c r="AW54" s="4"/>
       <c r="AX54" s="4"/>
     </row>
-    <row r="55" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -3264,7 +3281,7 @@
       <c r="AW55" s="4"/>
       <c r="AX55" s="4"/>
     </row>
-    <row r="56" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -3314,7 +3331,7 @@
       <c r="AW56" s="4"/>
       <c r="AX56" s="4"/>
     </row>
-    <row r="57" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -3364,7 +3381,7 @@
       <c r="AW57" s="4"/>
       <c r="AX57" s="4"/>
     </row>
-    <row r="58" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -3414,7 +3431,7 @@
       <c r="AW58" s="4"/>
       <c r="AX58" s="4"/>
     </row>
-    <row r="59" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -3464,7 +3481,7 @@
       <c r="AW59" s="4"/>
       <c r="AX59" s="4"/>
     </row>
-    <row r="60" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -3514,7 +3531,7 @@
       <c r="AW60" s="4"/>
       <c r="AX60" s="4"/>
     </row>
-    <row r="61" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -3564,7 +3581,7 @@
       <c r="AW61" s="4"/>
       <c r="AX61" s="4"/>
     </row>
-    <row r="62" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -3614,7 +3631,7 @@
       <c r="AW62" s="4"/>
       <c r="AX62" s="4"/>
     </row>
-    <row r="63" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -3664,7 +3681,7 @@
       <c r="AW63" s="4"/>
       <c r="AX63" s="4"/>
     </row>
-    <row r="64" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -3714,7 +3731,7 @@
       <c r="AW64" s="4"/>
       <c r="AX64" s="4"/>
     </row>
-    <row r="65" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -3764,7 +3781,7 @@
       <c r="AW65" s="4"/>
       <c r="AX65" s="4"/>
     </row>
-    <row r="66" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -3814,7 +3831,7 @@
       <c r="AW66" s="4"/>
       <c r="AX66" s="4"/>
     </row>
-    <row r="67" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -3864,7 +3881,7 @@
       <c r="AW67" s="4"/>
       <c r="AX67" s="4"/>
     </row>
-    <row r="68" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -3914,7 +3931,7 @@
       <c r="AW68" s="4"/>
       <c r="AX68" s="4"/>
     </row>
-    <row r="69" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -3964,7 +3981,7 @@
       <c r="AW69" s="4"/>
       <c r="AX69" s="4"/>
     </row>
-    <row r="70" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -4014,7 +4031,7 @@
       <c r="AW70" s="4"/>
       <c r="AX70" s="4"/>
     </row>
-    <row r="71" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -4064,7 +4081,7 @@
       <c r="AW71" s="4"/>
       <c r="AX71" s="4"/>
     </row>
-    <row r="72" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -4114,7 +4131,7 @@
       <c r="AW72" s="4"/>
       <c r="AX72" s="4"/>
     </row>
-    <row r="73" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -4164,7 +4181,7 @@
       <c r="AW73" s="4"/>
       <c r="AX73" s="4"/>
     </row>
-    <row r="74" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -4214,7 +4231,7 @@
       <c r="AW74" s="4"/>
       <c r="AX74" s="4"/>
     </row>
-    <row r="75" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -4264,7 +4281,7 @@
       <c r="AW75" s="4"/>
       <c r="AX75" s="4"/>
     </row>
-    <row r="76" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -4314,7 +4331,7 @@
       <c r="AW76" s="4"/>
       <c r="AX76" s="4"/>
     </row>
-    <row r="77" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -4364,7 +4381,7 @@
       <c r="AW77" s="4"/>
       <c r="AX77" s="4"/>
     </row>
-    <row r="78" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -4414,7 +4431,7 @@
       <c r="AW78" s="4"/>
       <c r="AX78" s="4"/>
     </row>
-    <row r="79" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -4464,7 +4481,7 @@
       <c r="AW79" s="4"/>
       <c r="AX79" s="4"/>
     </row>
-    <row r="80" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -4514,7 +4531,7 @@
       <c r="AW80" s="4"/>
       <c r="AX80" s="4"/>
     </row>
-    <row r="81" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -4564,7 +4581,7 @@
       <c r="AW81" s="4"/>
       <c r="AX81" s="4"/>
     </row>
-    <row r="82" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -4614,7 +4631,7 @@
       <c r="AW82" s="4"/>
       <c r="AX82" s="4"/>
     </row>
-    <row r="83" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -4664,7 +4681,7 @@
       <c r="AW83" s="4"/>
       <c r="AX83" s="4"/>
     </row>
-    <row r="84" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -4714,7 +4731,7 @@
       <c r="AW84" s="4"/>
       <c r="AX84" s="4"/>
     </row>
-    <row r="85" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -4764,7 +4781,7 @@
       <c r="AW85" s="4"/>
       <c r="AX85" s="4"/>
     </row>
-    <row r="86" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -4814,7 +4831,7 @@
       <c r="AW86" s="4"/>
       <c r="AX86" s="4"/>
     </row>
-    <row r="87" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -4864,7 +4881,7 @@
       <c r="AW87" s="4"/>
       <c r="AX87" s="4"/>
     </row>
-    <row r="88" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -4914,7 +4931,7 @@
       <c r="AW88" s="4"/>
       <c r="AX88" s="4"/>
     </row>
-    <row r="89" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -4964,7 +4981,7 @@
       <c r="AW89" s="4"/>
       <c r="AX89" s="4"/>
     </row>
-    <row r="90" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -5014,7 +5031,7 @@
       <c r="AW90" s="4"/>
       <c r="AX90" s="4"/>
     </row>
-    <row r="91" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -5064,7 +5081,7 @@
       <c r="AW91" s="4"/>
       <c r="AX91" s="4"/>
     </row>
-    <row r="92" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -5114,7 +5131,7 @@
       <c r="AW92" s="4"/>
       <c r="AX92" s="4"/>
     </row>
-    <row r="93" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -5164,7 +5181,7 @@
       <c r="AW93" s="4"/>
       <c r="AX93" s="4"/>
     </row>
-    <row r="94" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -5214,7 +5231,7 @@
       <c r="AW94" s="4"/>
       <c r="AX94" s="4"/>
     </row>
-    <row r="95" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -5264,7 +5281,7 @@
       <c r="AW95" s="4"/>
       <c r="AX95" s="4"/>
     </row>
-    <row r="96" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -5314,7 +5331,7 @@
       <c r="AW96" s="4"/>
       <c r="AX96" s="4"/>
     </row>
-    <row r="97" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -5364,7 +5381,7 @@
       <c r="AW97" s="4"/>
       <c r="AX97" s="4"/>
     </row>
-    <row r="98" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -5414,7 +5431,7 @@
       <c r="AW98" s="4"/>
       <c r="AX98" s="4"/>
     </row>
-    <row r="99" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -5464,7 +5481,7 @@
       <c r="AW99" s="4"/>
       <c r="AX99" s="4"/>
     </row>
-    <row r="100" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -5514,7 +5531,7 @@
       <c r="AW100" s="4"/>
       <c r="AX100" s="4"/>
     </row>
-    <row r="101" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -5564,7 +5581,7 @@
       <c r="AW101" s="4"/>
       <c r="AX101" s="4"/>
     </row>
-    <row r="102" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -5614,7 +5631,7 @@
       <c r="AW102" s="4"/>
       <c r="AX102" s="4"/>
     </row>
-    <row r="103" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -5664,7 +5681,7 @@
       <c r="AW103" s="4"/>
       <c r="AX103" s="4"/>
     </row>
-    <row r="104" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -5714,7 +5731,7 @@
       <c r="AW104" s="4"/>
       <c r="AX104" s="4"/>
     </row>
-    <row r="105" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -5764,7 +5781,7 @@
       <c r="AW105" s="4"/>
       <c r="AX105" s="4"/>
     </row>
-    <row r="106" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -5814,7 +5831,7 @@
       <c r="AW106" s="4"/>
       <c r="AX106" s="4"/>
     </row>
-    <row r="107" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -5864,7 +5881,7 @@
       <c r="AW107" s="4"/>
       <c r="AX107" s="4"/>
     </row>
-    <row r="108" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -5914,7 +5931,7 @@
       <c r="AW108" s="4"/>
       <c r="AX108" s="4"/>
     </row>
-    <row r="109" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -5964,7 +5981,7 @@
       <c r="AW109" s="4"/>
       <c r="AX109" s="4"/>
     </row>
-    <row r="110" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -6014,7 +6031,7 @@
       <c r="AW110" s="4"/>
       <c r="AX110" s="4"/>
     </row>
-    <row r="111" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -6064,7 +6081,7 @@
       <c r="AW111" s="4"/>
       <c r="AX111" s="4"/>
     </row>
-    <row r="112" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -6114,7 +6131,7 @@
       <c r="AW112" s="4"/>
       <c r="AX112" s="4"/>
     </row>
-    <row r="113" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -6164,7 +6181,7 @@
       <c r="AW113" s="4"/>
       <c r="AX113" s="4"/>
     </row>
-    <row r="114" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -6214,7 +6231,7 @@
       <c r="AW114" s="4"/>
       <c r="AX114" s="4"/>
     </row>
-    <row r="115" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -6264,7 +6281,7 @@
       <c r="AW115" s="4"/>
       <c r="AX115" s="4"/>
     </row>
-    <row r="116" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -6314,7 +6331,7 @@
       <c r="AW116" s="4"/>
       <c r="AX116" s="4"/>
     </row>
-    <row r="117" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -6364,7 +6381,7 @@
       <c r="AW117" s="4"/>
       <c r="AX117" s="4"/>
     </row>
-    <row r="118" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -6414,7 +6431,7 @@
       <c r="AW118" s="4"/>
       <c r="AX118" s="4"/>
     </row>
-    <row r="119" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -6464,7 +6481,7 @@
       <c r="AW119" s="4"/>
       <c r="AX119" s="4"/>
     </row>
-    <row r="120" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -6514,7 +6531,7 @@
       <c r="AW120" s="4"/>
       <c r="AX120" s="4"/>
     </row>
-    <row r="121" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -6564,7 +6581,7 @@
       <c r="AW121" s="4"/>
       <c r="AX121" s="4"/>
     </row>
-    <row r="122" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -6614,7 +6631,7 @@
       <c r="AW122" s="4"/>
       <c r="AX122" s="4"/>
     </row>
-    <row r="123" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -6664,7 +6681,7 @@
       <c r="AW123" s="4"/>
       <c r="AX123" s="4"/>
     </row>
-    <row r="124" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -6714,7 +6731,7 @@
       <c r="AW124" s="4"/>
       <c r="AX124" s="4"/>
     </row>
-    <row r="125" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -6764,7 +6781,7 @@
       <c r="AW125" s="4"/>
       <c r="AX125" s="4"/>
     </row>
-    <row r="126" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -6814,7 +6831,7 @@
       <c r="AW126" s="4"/>
       <c r="AX126" s="4"/>
     </row>
-    <row r="127" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -6864,7 +6881,7 @@
       <c r="AW127" s="4"/>
       <c r="AX127" s="4"/>
     </row>
-    <row r="128" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -6914,7 +6931,7 @@
       <c r="AW128" s="4"/>
       <c r="AX128" s="4"/>
     </row>
-    <row r="129" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -6964,7 +6981,7 @@
       <c r="AW129" s="4"/>
       <c r="AX129" s="4"/>
     </row>
-    <row r="130" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -7014,7 +7031,7 @@
       <c r="AW130" s="4"/>
       <c r="AX130" s="4"/>
     </row>
-    <row r="131" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -7064,7 +7081,7 @@
       <c r="AW131" s="4"/>
       <c r="AX131" s="4"/>
     </row>
-    <row r="132" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -7114,7 +7131,7 @@
       <c r="AW132" s="4"/>
       <c r="AX132" s="4"/>
     </row>
-    <row r="133" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -7164,7 +7181,7 @@
       <c r="AW133" s="4"/>
       <c r="AX133" s="4"/>
     </row>
-    <row r="134" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -7214,7 +7231,7 @@
       <c r="AW134" s="4"/>
       <c r="AX134" s="4"/>
     </row>
-    <row r="135" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -7264,7 +7281,7 @@
       <c r="AW135" s="4"/>
       <c r="AX135" s="4"/>
     </row>
-    <row r="136" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -7314,7 +7331,7 @@
       <c r="AW136" s="4"/>
       <c r="AX136" s="4"/>
     </row>
-    <row r="137" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -7364,7 +7381,7 @@
       <c r="AW137" s="4"/>
       <c r="AX137" s="4"/>
     </row>
-    <row r="138" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -7414,7 +7431,7 @@
       <c r="AW138" s="4"/>
       <c r="AX138" s="4"/>
     </row>
-    <row r="139" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -7464,7 +7481,7 @@
       <c r="AW139" s="4"/>
       <c r="AX139" s="4"/>
     </row>
-    <row r="140" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -7514,7 +7531,7 @@
       <c r="AW140" s="4"/>
       <c r="AX140" s="4"/>
     </row>
-    <row r="141" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -7564,7 +7581,7 @@
       <c r="AW141" s="4"/>
       <c r="AX141" s="4"/>
     </row>
-    <row r="142" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -7614,7 +7631,7 @@
       <c r="AW142" s="4"/>
       <c r="AX142" s="4"/>
     </row>
-    <row r="143" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -7664,7 +7681,7 @@
       <c r="AW143" s="4"/>
       <c r="AX143" s="4"/>
     </row>
-    <row r="144" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -7714,7 +7731,7 @@
       <c r="AW144" s="4"/>
       <c r="AX144" s="4"/>
     </row>
-    <row r="145" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -7764,7 +7781,7 @@
       <c r="AW145" s="4"/>
       <c r="AX145" s="4"/>
     </row>
-    <row r="146" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -7814,7 +7831,7 @@
       <c r="AW146" s="4"/>
       <c r="AX146" s="4"/>
     </row>
-    <row r="147" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -7864,7 +7881,7 @@
       <c r="AW147" s="4"/>
       <c r="AX147" s="4"/>
     </row>
-    <row r="148" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -7914,7 +7931,7 @@
       <c r="AW148" s="4"/>
       <c r="AX148" s="4"/>
     </row>
-    <row r="149" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -7964,7 +7981,7 @@
       <c r="AW149" s="4"/>
       <c r="AX149" s="4"/>
     </row>
-    <row r="150" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -8014,7 +8031,7 @@
       <c r="AW150" s="4"/>
       <c r="AX150" s="4"/>
     </row>
-    <row r="151" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -8064,7 +8081,7 @@
       <c r="AW151" s="4"/>
       <c r="AX151" s="4"/>
     </row>
-    <row r="152" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -8114,7 +8131,7 @@
       <c r="AW152" s="4"/>
       <c r="AX152" s="4"/>
     </row>
-    <row r="153" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -8164,7 +8181,7 @@
       <c r="AW153" s="4"/>
       <c r="AX153" s="4"/>
     </row>
-    <row r="154" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -8214,7 +8231,7 @@
       <c r="AW154" s="4"/>
       <c r="AX154" s="4"/>
     </row>
-    <row r="155" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -8264,7 +8281,7 @@
       <c r="AW155" s="4"/>
       <c r="AX155" s="4"/>
     </row>
-    <row r="156" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -8314,7 +8331,7 @@
       <c r="AW156" s="4"/>
       <c r="AX156" s="4"/>
     </row>
-    <row r="157" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -8364,7 +8381,7 @@
       <c r="AW157" s="4"/>
       <c r="AX157" s="4"/>
     </row>
-    <row r="158" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -8414,7 +8431,7 @@
       <c r="AW158" s="4"/>
       <c r="AX158" s="4"/>
     </row>
-    <row r="159" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -8464,7 +8481,7 @@
       <c r="AW159" s="4"/>
       <c r="AX159" s="4"/>
     </row>
-    <row r="160" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -8514,7 +8531,7 @@
       <c r="AW160" s="4"/>
       <c r="AX160" s="4"/>
     </row>
-    <row r="161" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -8564,7 +8581,7 @@
       <c r="AW161" s="4"/>
       <c r="AX161" s="4"/>
     </row>
-    <row r="162" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
@@ -8614,7 +8631,7 @@
       <c r="AW162" s="4"/>
       <c r="AX162" s="4"/>
     </row>
-    <row r="163" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
@@ -8664,7 +8681,7 @@
       <c r="AW163" s="4"/>
       <c r="AX163" s="4"/>
     </row>
-    <row r="164" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
@@ -8714,7 +8731,7 @@
       <c r="AW164" s="4"/>
       <c r="AX164" s="4"/>
     </row>
-    <row r="165" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
@@ -8764,7 +8781,7 @@
       <c r="AW165" s="4"/>
       <c r="AX165" s="4"/>
     </row>
-    <row r="166" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
@@ -8814,7 +8831,7 @@
       <c r="AW166" s="4"/>
       <c r="AX166" s="4"/>
     </row>
-    <row r="167" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -8864,7 +8881,7 @@
       <c r="AW167" s="4"/>
       <c r="AX167" s="4"/>
     </row>
-    <row r="168" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -8914,7 +8931,7 @@
       <c r="AW168" s="4"/>
       <c r="AX168" s="4"/>
     </row>
-    <row r="169" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -8964,7 +8981,7 @@
       <c r="AW169" s="4"/>
       <c r="AX169" s="4"/>
     </row>
-    <row r="170" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -9014,7 +9031,7 @@
       <c r="AW170" s="4"/>
       <c r="AX170" s="4"/>
     </row>
-    <row r="171" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -9064,7 +9081,7 @@
       <c r="AW171" s="4"/>
       <c r="AX171" s="4"/>
     </row>
-    <row r="172" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
@@ -9114,7 +9131,7 @@
       <c r="AW172" s="4"/>
       <c r="AX172" s="4"/>
     </row>
-    <row r="173" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
@@ -9164,7 +9181,7 @@
       <c r="AW173" s="4"/>
       <c r="AX173" s="4"/>
     </row>
-    <row r="174" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
@@ -9214,7 +9231,7 @@
       <c r="AW174" s="4"/>
       <c r="AX174" s="4"/>
     </row>
-    <row r="175" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -9264,7 +9281,7 @@
       <c r="AW175" s="4"/>
       <c r="AX175" s="4"/>
     </row>
-    <row r="176" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -9314,7 +9331,7 @@
       <c r="AW176" s="4"/>
       <c r="AX176" s="4"/>
     </row>
-    <row r="177" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -9364,7 +9381,7 @@
       <c r="AW177" s="4"/>
       <c r="AX177" s="4"/>
     </row>
-    <row r="178" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
@@ -9414,7 +9431,7 @@
       <c r="AW178" s="4"/>
       <c r="AX178" s="4"/>
     </row>
-    <row r="179" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -9464,7 +9481,7 @@
       <c r="AW179" s="4"/>
       <c r="AX179" s="4"/>
     </row>
-    <row r="180" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -9514,7 +9531,7 @@
       <c r="AW180" s="4"/>
       <c r="AX180" s="4"/>
     </row>
-    <row r="181" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
@@ -9564,7 +9581,7 @@
       <c r="AW181" s="4"/>
       <c r="AX181" s="4"/>
     </row>
-    <row r="182" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
@@ -9614,7 +9631,7 @@
       <c r="AW182" s="4"/>
       <c r="AX182" s="4"/>
     </row>
-    <row r="183" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -9664,7 +9681,7 @@
       <c r="AW183" s="4"/>
       <c r="AX183" s="4"/>
     </row>
-    <row r="184" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
@@ -9714,7 +9731,7 @@
       <c r="AW184" s="4"/>
       <c r="AX184" s="4"/>
     </row>
-    <row r="185" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -9764,7 +9781,7 @@
       <c r="AW185" s="4"/>
       <c r="AX185" s="4"/>
     </row>
-    <row r="186" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -9814,7 +9831,7 @@
       <c r="AW186" s="4"/>
       <c r="AX186" s="4"/>
     </row>
-    <row r="187" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -9864,7 +9881,7 @@
       <c r="AW187" s="4"/>
       <c r="AX187" s="4"/>
     </row>
-    <row r="188" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -9914,7 +9931,7 @@
       <c r="AW188" s="4"/>
       <c r="AX188" s="4"/>
     </row>
-    <row r="189" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -9964,7 +9981,7 @@
       <c r="AW189" s="4"/>
       <c r="AX189" s="4"/>
     </row>
-    <row r="190" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
@@ -10014,7 +10031,7 @@
       <c r="AW190" s="4"/>
       <c r="AX190" s="4"/>
     </row>
-    <row r="191" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -10064,7 +10081,7 @@
       <c r="AW191" s="4"/>
       <c r="AX191" s="4"/>
     </row>
-    <row r="192" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
@@ -10114,7 +10131,7 @@
       <c r="AW192" s="4"/>
       <c r="AX192" s="4"/>
     </row>
-    <row r="193" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
@@ -10164,7 +10181,7 @@
       <c r="AW193" s="4"/>
       <c r="AX193" s="4"/>
     </row>
-    <row r="194" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
@@ -10214,7 +10231,7 @@
       <c r="AW194" s="4"/>
       <c r="AX194" s="4"/>
     </row>
-    <row r="195" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -10264,7 +10281,7 @@
       <c r="AW195" s="4"/>
       <c r="AX195" s="4"/>
     </row>
-    <row r="196" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
@@ -10314,7 +10331,7 @@
       <c r="AW196" s="4"/>
       <c r="AX196" s="4"/>
     </row>
-    <row r="197" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
@@ -10364,7 +10381,7 @@
       <c r="AW197" s="4"/>
       <c r="AX197" s="4"/>
     </row>
-    <row r="198" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
@@ -10414,7 +10431,7 @@
       <c r="AW198" s="4"/>
       <c r="AX198" s="4"/>
     </row>
-    <row r="199" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -10464,7 +10481,7 @@
       <c r="AW199" s="4"/>
       <c r="AX199" s="4"/>
     </row>
-    <row r="200" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -10514,7 +10531,7 @@
       <c r="AW200" s="4"/>
       <c r="AX200" s="4"/>
     </row>
-    <row r="201" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
@@ -10564,7 +10581,7 @@
       <c r="AW201" s="4"/>
       <c r="AX201" s="4"/>
     </row>
-    <row r="202" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
@@ -10614,7 +10631,7 @@
       <c r="AW202" s="4"/>
       <c r="AX202" s="4"/>
     </row>
-    <row r="203" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -10664,7 +10681,7 @@
       <c r="AW203" s="4"/>
       <c r="AX203" s="4"/>
     </row>
-    <row r="204" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
@@ -10714,7 +10731,7 @@
       <c r="AW204" s="4"/>
       <c r="AX204" s="4"/>
     </row>
-    <row r="205" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -10764,7 +10781,7 @@
       <c r="AW205" s="4"/>
       <c r="AX205" s="4"/>
     </row>
-    <row r="206" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
@@ -10814,7 +10831,7 @@
       <c r="AW206" s="4"/>
       <c r="AX206" s="4"/>
     </row>
-    <row r="207" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -10864,7 +10881,7 @@
       <c r="AW207" s="4"/>
       <c r="AX207" s="4"/>
     </row>
-    <row r="208" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
@@ -10914,7 +10931,7 @@
       <c r="AW208" s="4"/>
       <c r="AX208" s="4"/>
     </row>
-    <row r="209" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
@@ -10964,7 +10981,7 @@
       <c r="AW209" s="4"/>
       <c r="AX209" s="4"/>
     </row>
-    <row r="210" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
@@ -11014,7 +11031,7 @@
       <c r="AW210" s="4"/>
       <c r="AX210" s="4"/>
     </row>
-    <row r="211" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -11064,7 +11081,7 @@
       <c r="AW211" s="4"/>
       <c r="AX211" s="4"/>
     </row>
-    <row r="212" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
@@ -11114,7 +11131,7 @@
       <c r="AW212" s="4"/>
       <c r="AX212" s="4"/>
     </row>
-    <row r="213" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -11164,7 +11181,7 @@
       <c r="AW213" s="4"/>
       <c r="AX213" s="4"/>
     </row>
-    <row r="214" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -11214,7 +11231,7 @@
       <c r="AW214" s="4"/>
       <c r="AX214" s="4"/>
     </row>
-    <row r="215" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -11264,7 +11281,7 @@
       <c r="AW215" s="4"/>
       <c r="AX215" s="4"/>
     </row>
-    <row r="216" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -11314,7 +11331,7 @@
       <c r="AW216" s="4"/>
       <c r="AX216" s="4"/>
     </row>
-    <row r="217" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -11364,7 +11381,7 @@
       <c r="AW217" s="4"/>
       <c r="AX217" s="4"/>
     </row>
-    <row r="218" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -11414,7 +11431,7 @@
       <c r="AW218" s="4"/>
       <c r="AX218" s="4"/>
     </row>
-    <row r="219" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -11464,7 +11481,7 @@
       <c r="AW219" s="4"/>
       <c r="AX219" s="4"/>
     </row>
-    <row r="220" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -11514,7 +11531,7 @@
       <c r="AW220" s="4"/>
       <c r="AX220" s="4"/>
     </row>
-    <row r="221" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -11564,7 +11581,7 @@
       <c r="AW221" s="4"/>
       <c r="AX221" s="4"/>
     </row>
-    <row r="222" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -11614,7 +11631,7 @@
       <c r="AW222" s="4"/>
       <c r="AX222" s="4"/>
     </row>
-    <row r="223" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -11664,7 +11681,7 @@
       <c r="AW223" s="4"/>
       <c r="AX223" s="4"/>
     </row>
-    <row r="224" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -11714,7 +11731,7 @@
       <c r="AW224" s="4"/>
       <c r="AX224" s="4"/>
     </row>
-    <row r="225" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -11764,7 +11781,7 @@
       <c r="AW225" s="4"/>
       <c r="AX225" s="4"/>
     </row>
-    <row r="226" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -11814,7 +11831,7 @@
       <c r="AW226" s="4"/>
       <c r="AX226" s="4"/>
     </row>
-    <row r="227" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -11864,7 +11881,7 @@
       <c r="AW227" s="4"/>
       <c r="AX227" s="4"/>
     </row>
-    <row r="228" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -11914,7 +11931,7 @@
       <c r="AW228" s="4"/>
       <c r="AX228" s="4"/>
     </row>
-    <row r="229" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -11964,7 +11981,7 @@
       <c r="AW229" s="4"/>
       <c r="AX229" s="4"/>
     </row>
-    <row r="230" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -12014,7 +12031,7 @@
       <c r="AW230" s="4"/>
       <c r="AX230" s="4"/>
     </row>
-    <row r="231" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -12064,7 +12081,7 @@
       <c r="AW231" s="4"/>
       <c r="AX231" s="4"/>
     </row>
-    <row r="232" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -12114,7 +12131,7 @@
       <c r="AW232" s="4"/>
       <c r="AX232" s="4"/>
     </row>
-    <row r="233" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -12164,7 +12181,7 @@
       <c r="AW233" s="4"/>
       <c r="AX233" s="4"/>
     </row>
-    <row r="234" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -12214,7 +12231,7 @@
       <c r="AW234" s="4"/>
       <c r="AX234" s="4"/>
     </row>
-    <row r="235" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -12264,7 +12281,7 @@
       <c r="AW235" s="4"/>
       <c r="AX235" s="4"/>
     </row>
-    <row r="236" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -12314,7 +12331,7 @@
       <c r="AW236" s="4"/>
       <c r="AX236" s="4"/>
     </row>
-    <row r="237" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -12364,7 +12381,7 @@
       <c r="AW237" s="4"/>
       <c r="AX237" s="4"/>
     </row>
-    <row r="238" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -12414,7 +12431,7 @@
       <c r="AW238" s="4"/>
       <c r="AX238" s="4"/>
     </row>
-    <row r="239" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -12464,7 +12481,7 @@
       <c r="AW239" s="4"/>
       <c r="AX239" s="4"/>
     </row>
-    <row r="240" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
@@ -12514,7 +12531,7 @@
       <c r="AW240" s="4"/>
       <c r="AX240" s="4"/>
     </row>
-    <row r="241" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -12564,7 +12581,7 @@
       <c r="AW241" s="4"/>
       <c r="AX241" s="4"/>
     </row>
-    <row r="242" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
